--- a/Lab 4/Lab 4 Error Results.xlsx
+++ b/Lab 4/Lab 4 Error Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukea\Desktop\diffeq hw3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Differential-Equations-Numerical-Methods\Lab 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559AEAA8-7296-4900-A6C5-56C60D6259CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0682EFCB-F419-4B71-84EA-D6408487F80E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD9EE13F-E0CD-41F9-AF4A-1C1EF433BEB1}"/>
+    <workbookView xWindow="-28755" yWindow="4470" windowWidth="21600" windowHeight="11385" xr2:uid="{CD9EE13F-E0CD-41F9-AF4A-1C1EF433BEB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>h</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>y' = y^2*cos(2x)</t>
+  </si>
+  <si>
+    <t>Solution Equations</t>
+  </si>
+  <si>
+    <t>e^x</t>
   </si>
 </sst>
 </file>
@@ -4967,6 +4973,138 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285563</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD2A58A-3DFF-4B52-9A2D-9DD2E121D8A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10372725" y="1333500"/>
+          <a:ext cx="1495238" cy="561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590401</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3552B0C6-4485-43BE-9032-16FB90DC5CF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10372725" y="1085850"/>
+          <a:ext cx="1190476" cy="276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95087</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102D0176-D923-4456-887B-066BC8103ABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10372725" y="704850"/>
+          <a:ext cx="1304762" cy="323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5267,15 +5405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A2BAFA-B17D-413D-BAE9-8D52A00A49AE}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5288,8 +5426,11 @@
       <c r="N1" t="s">
         <v>6</v>
       </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5327,7 +5468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -5364,8 +5505,11 @@
       <c r="P3">
         <v>4.3662855017173298E-2</v>
       </c>
+      <c r="R3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.05</v>
       </c>
@@ -5403,7 +5547,7 @@
         <v>1.85360169038917E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -5441,7 +5585,7 @@
         <v>7.0597973358399403E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -5479,7 +5623,7 @@
         <v>2.9117578381754298E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5517,7 +5661,7 @@
         <v>1.3482625194072199E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.1250000000000002E-3</v>
       </c>
@@ -5555,7 +5699,7 @@
         <v>6.9346925979374402E-9</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.5625000000000001E-3</v>
       </c>
@@ -5593,7 +5737,7 @@
         <v>3.8679415226283698E-10</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.8125000000000004E-4</v>
       </c>
